--- a/biology/Botanique/Hypericum_richeri/Hypericum_richeri.xlsx
+++ b/biology/Botanique/Hypericum_richeri/Hypericum_richeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Millepertuis de Richer (Hypericum richeri) est une espèce de plantes à fleurs du genre Hypericum.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs sont jaunes tachetées et apparaissent en été. Voici la description de la plante par Hippolyte Coste[1] : « Plante glabre, à souche ligneuse ; tiges de 20-40 cm, cylindriques, raides, dressées ou ascendantes ; feuilles demi-embrassantes, ovales-lancéolées, bordées de points noirs, non ou à peine ponctuées-transparentes ; fleurs jaunes, grandes, en corymbe pauciflore assez dense ; sépales lancéolés-acuminés, ponctués de noir, bordés de longues franges en massue ; pétales 3 fois plus longs que le calice, ponctués de noir ; étamines plus courtes que les pétales ; capsule ovoïde, dépassant peu le calice, ponctuée de noir, sans bandelettes. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont jaunes tachetées et apparaissent en été. Voici la description de la plante par Hippolyte Coste : « Plante glabre, à souche ligneuse ; tiges de 20-40 cm, cylindriques, raides, dressées ou ascendantes ; feuilles demi-embrassantes, ovales-lancéolées, bordées de points noirs, non ou à peine ponctuées-transparentes ; fleurs jaunes, grandes, en corymbe pauciflore assez dense ; sépales lancéolés-acuminés, ponctués de noir, bordés de longues franges en massue ; pétales 3 fois plus longs que le calice, ponctués de noir ; étamines plus courtes que les pétales ; capsule ovoïde, dépassant peu le calice, ponctuée de noir, sans bandelettes. »
 La plante vit dans les pâturages et les bois de haute montagne comme le Jura, les Alpes, les Pyrénées (montagnes d'Europe centrale et méridionale).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hypericum richeri subsp. burseri appelée Millepertuis de Burser
 Hypericum richeri subsp. richeri appelée Millepertuis de Richer</t>
@@ -574,7 +590,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est sur la liste des espèces végétales protégées en Auvergne et sur celle de Franche-Comté.
 En Suisse, elle figure sur la liste rouge des plantes.
